--- a/M03DB/S02/Step-03-Editorial.xlsx
+++ b/M03DB/S02/Step-03-Editorial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23530" windowHeight="12470" activeTab="1"/>
+    <workbookView windowWidth="14970" windowHeight="9750"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
   <si>
     <t>2) Modelo Lógico: Schema</t>
   </si>
@@ -45,6 +45,15 @@
     <t>longitud</t>
   </si>
   <si>
+    <t>unsigned</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
     <t>PK</t>
   </si>
   <si>
@@ -54,27 +63,36 @@
     <t>Primary Key</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Foreign Key</t>
+  </si>
+  <si>
+    <t>código</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
     <t>domicilio</t>
   </si>
   <si>
-    <t>varchar</t>
-  </si>
-  <si>
-    <t>Foreign Key</t>
-  </si>
-  <si>
     <t>teléfono</t>
   </si>
   <si>
-    <t>código</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>Empleados</t>
   </si>
   <si>
+    <t>rfc</t>
+  </si>
+  <si>
     <t>nombre</t>
   </si>
   <si>
@@ -90,13 +108,16 @@
     <t>fec. ing.</t>
   </si>
   <si>
-    <t>rfc</t>
-  </si>
-  <si>
-    <t>cod_suc</t>
-  </si>
-  <si>
-    <t>Sucursales(código)</t>
+    <t>id_suc</t>
+  </si>
+  <si>
+    <t>Sucursales( id )</t>
+  </si>
+  <si>
+    <t>Numérico</t>
+  </si>
+  <si>
+    <t>Único</t>
   </si>
   <si>
     <t>2) Modelo Lógico: Catálogo de Datos</t>
@@ -901,7 +922,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -981,8 +1002,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipV="1">
-          <a:off x="4218305" y="979170"/>
-          <a:ext cx="1312545" cy="1212215"/>
+          <a:off x="3986530" y="1037590"/>
+          <a:ext cx="1356995" cy="1171575"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1275,29 +1296,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:J20"/>
+  <dimension ref="B3:M27"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:G20"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.63636363636364" customWidth="1"/>
-    <col min="2" max="2" width="13.0909090909091" customWidth="1"/>
-    <col min="4" max="4" width="7.81818181818182" customWidth="1"/>
-    <col min="5" max="5" width="8.36363636363636" customWidth="1"/>
-    <col min="6" max="6" width="3.54545454545455" customWidth="1"/>
-    <col min="7" max="7" width="17.9090909090909" customWidth="1"/>
-    <col min="9" max="9" width="11.5454545454545" customWidth="1"/>
+    <col min="1" max="1" width="3.63809523809524" customWidth="1"/>
+    <col min="2" max="2" width="13.0952380952381" customWidth="1"/>
+    <col min="4" max="4" width="7.81904761904762" customWidth="1"/>
+    <col min="5" max="6" width="8.36190476190476" customWidth="1"/>
+    <col min="7" max="7" width="3.42857142857143" customWidth="1"/>
+    <col min="8" max="9" width="3.54285714285714" customWidth="1"/>
+    <col min="10" max="10" width="15.4285714285714" customWidth="1"/>
+    <col min="12" max="12" width="11.5428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="23.5" spans="2:2">
+    <row r="3" ht="23.25" spans="2:2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:13">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1316,166 +1338,280 @@
       <c r="G5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J5">
+      <c r="I5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:9">
-      <c r="C6" s="5" t="s">
+    <row r="6" spans="3:12">
+      <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="L6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10">
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="3:10">
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="5">
+        <v>120</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="3:10">
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="5">
+        <v>15</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="J12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="5">
-        <v>120</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7">
-      <c r="C7" s="5" t="s">
+    </row>
+    <row r="13" spans="3:10">
+      <c r="C13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="5">
-        <v>15</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="3:7">
-      <c r="C8" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="5">
-        <v>12</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="E13" s="5"/>
+      <c r="F13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7">
+      <c r="G13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="3:10">
       <c r="C14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E14" s="5">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="3:7">
+      <c r="H14" s="5"/>
+      <c r="I14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="3:10">
       <c r="C15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="E15" s="5">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="3:7">
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="3:10">
       <c r="C16" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="E16" s="5">
+        <v>80</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="3:7">
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="3:10">
       <c r="C17" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="3:7">
-      <c r="C18" s="7" t="s">
-        <v>20</v>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="5">
-        <v>22</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>13</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="3:7">
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="3:10">
       <c r="C19" s="5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E19" s="5">
         <v>15</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="3:7">
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="3:10">
       <c r="C20" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E20" s="5">
         <v>12</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="5" t="s">
-        <v>22</v>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1489,24 +1625,24 @@
   <sheetPr/>
   <dimension ref="B3:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="13.0909090909091" customWidth="1"/>
-    <col min="3" max="3" width="14.4545454545455" customWidth="1"/>
-    <col min="4" max="4" width="12.2727272727273" customWidth="1"/>
-    <col min="5" max="5" width="11.0909090909091" customWidth="1"/>
-    <col min="6" max="6" width="12.8181818181818" customWidth="1"/>
-    <col min="7" max="7" width="11.0909090909091" customWidth="1"/>
-    <col min="9" max="9" width="10.8181818181818" customWidth="1"/>
+    <col min="2" max="2" width="13.0952380952381" customWidth="1"/>
+    <col min="3" max="3" width="14.4571428571429" customWidth="1"/>
+    <col min="4" max="4" width="12.2761904761905" customWidth="1"/>
+    <col min="5" max="5" width="11.0952380952381" customWidth="1"/>
+    <col min="6" max="6" width="12.8190476190476" customWidth="1"/>
+    <col min="7" max="7" width="11.0952380952381" customWidth="1"/>
+    <col min="9" max="9" width="10.8190476190476" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="23.5" spans="2:2">
+    <row r="3" ht="23.25" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -1514,145 +1650,145 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="3:5">
       <c r="C6" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="3:5">
       <c r="C7" s="5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="3:5">
       <c r="C8" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="3:5">
       <c r="C9" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="3:7">
       <c r="C14" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="3:7">
       <c r="C15" s="5" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="3:7">
       <c r="C16" s="5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="3:7">
       <c r="C17" s="5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/M03DB/S02/Step-03-Editorial.xlsx
+++ b/M03DB/S02/Step-03-Editorial.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14970" windowHeight="9750"/>
+    <workbookView windowWidth="23145" windowHeight="9750" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="1" r:id="rId1"/>
     <sheet name="C. Datos" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,21 +29,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>2) Modelo Lógico: Schema</t>
   </si>
   <si>
-    <t>Sucursales</t>
-  </si>
-  <si>
-    <t>campo</t>
-  </si>
-  <si>
-    <t>tipo</t>
-  </si>
-  <si>
-    <t>longitud</t>
+    <t>Branches</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>size</t>
   </si>
   <si>
     <t>unsigned</t>
@@ -75,43 +76,43 @@
     <t>Foreign Key</t>
   </si>
   <si>
-    <t>código</t>
+    <t>code</t>
   </si>
   <si>
     <t>varchar</t>
   </si>
   <si>
-    <t>domicilio</t>
-  </si>
-  <si>
-    <t>teléfono</t>
-  </si>
-  <si>
-    <t>Empleados</t>
+    <t>address</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>Employees</t>
   </si>
   <si>
     <t>rfc</t>
   </si>
   <si>
-    <t>nombre</t>
-  </si>
-  <si>
-    <t>apellidos</t>
-  </si>
-  <si>
-    <t>fec. nac.</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>birthday</t>
   </si>
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>fec. ing.</t>
-  </si>
-  <si>
-    <t>id_suc</t>
-  </si>
-  <si>
-    <t>Sucursales( id )</t>
+    <t>entrydate</t>
+  </si>
+  <si>
+    <t>branch_id</t>
+  </si>
+  <si>
+    <t>Branches( id )</t>
   </si>
   <si>
     <t>Numérico</t>
@@ -123,22 +124,19 @@
     <t>2) Modelo Lógico: Catálogo de Datos</t>
   </si>
   <si>
-    <t>Domicilio</t>
-  </si>
-  <si>
-    <t>Teléfono</t>
-  </si>
-  <si>
-    <t>Código</t>
+    <t>id (PK)</t>
+  </si>
+  <si>
+    <t>addresss</t>
+  </si>
+  <si>
+    <t>CDMXSUR1</t>
   </si>
   <si>
     <t>Lagos 15</t>
   </si>
   <si>
-    <t>55 1020 3015</t>
-  </si>
-  <si>
-    <t>CDMXSUR1</t>
+    <t>CDMXSUR2</t>
   </si>
   <si>
     <t>Corregidora 20</t>
@@ -147,16 +145,13 @@
     <t>55 2020 3015</t>
   </si>
   <si>
-    <t>CDMXSUR2</t>
+    <t>GDLOTE1</t>
   </si>
   <si>
     <t>Bosques 25</t>
   </si>
   <si>
-    <t>55 1020 3025</t>
-  </si>
-  <si>
-    <t>GDLOTE1</t>
+    <t>MTYNTE1</t>
   </si>
   <si>
     <t>Ríos 20</t>
@@ -165,19 +160,13 @@
     <t>55 1020 2028</t>
   </si>
   <si>
-    <t>MTYNTE1</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Apellidos</t>
-  </si>
-  <si>
     <t>RFC</t>
   </si>
   <si>
-    <t>Cod_suc</t>
+    <t>branch_id (FK)</t>
+  </si>
+  <si>
+    <t>JORO7581AZ</t>
   </si>
   <si>
     <t>Joshua</t>
@@ -186,10 +175,16 @@
     <t>Rodríguez</t>
   </si>
   <si>
-    <t>AAA0115</t>
-  </si>
-  <si>
-    <t>55 1020 3010</t>
+    <t>2009-12-11</t>
+  </si>
+  <si>
+    <t>2021-06-15</t>
+  </si>
+  <si>
+    <t>55 7175 4350</t>
+  </si>
+  <si>
+    <t>AUFE4529AZ</t>
   </si>
   <si>
     <t>Aurora</t>
@@ -198,16 +193,31 @@
     <t>Fernández</t>
   </si>
   <si>
-    <t>BBBB22B</t>
-  </si>
-  <si>
-    <t>55 2020 3010</t>
+    <t>1990-05-11</t>
+  </si>
+  <si>
+    <t>2022-04-03</t>
+  </si>
+  <si>
+    <t>56 6340 7207</t>
+  </si>
+  <si>
+    <t>JUFE5395NZ</t>
   </si>
   <si>
     <t>Juan</t>
   </si>
   <si>
-    <t>FCD1587</t>
+    <t>2013-04-03</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>55 6429 3880</t>
+  </si>
+  <si>
+    <t>ALPE6098OZ</t>
   </si>
   <si>
     <t>Alberto</t>
@@ -216,23 +226,100 @@
     <t>Pérez</t>
   </si>
   <si>
-    <t>RGH2548</t>
-  </si>
-  <si>
-    <t>55 1020 3021</t>
+    <t>1996-09-01</t>
+  </si>
+  <si>
+    <t>2023-10-28</t>
+  </si>
+  <si>
+    <t>56 2520 8284</t>
+  </si>
+  <si>
+    <t>RAPE8157LZ</t>
+  </si>
+  <si>
+    <t>Raquel</t>
+  </si>
+  <si>
+    <t>1992-06-21</t>
+  </si>
+  <si>
+    <t>2021-04-20</t>
+  </si>
+  <si>
+    <t>56 6703 6629</t>
+  </si>
+  <si>
+    <t>NALO5337YZ</t>
+  </si>
+  <si>
+    <t>Nataly</t>
+  </si>
+  <si>
+    <t>López</t>
+  </si>
+  <si>
+    <t>2013-03-01</t>
+  </si>
+  <si>
+    <t>2020-05-19</t>
+  </si>
+  <si>
+    <t>55 8520 1983</t>
+  </si>
+  <si>
+    <t>ALHE6325OZ</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>Hernández</t>
+  </si>
+  <si>
+    <t>2017-11-14</t>
+  </si>
+  <si>
+    <t>2022-12-23</t>
+  </si>
+  <si>
+    <t>56 3627 6284</t>
+  </si>
+  <si>
+    <t>ROPE2654OZ</t>
+  </si>
+  <si>
+    <t>Rodrigo</t>
+  </si>
+  <si>
+    <t>Peláez</t>
+  </si>
+  <si>
+    <t>2000-03-18</t>
+  </si>
+  <si>
+    <t>2022-11-12</t>
+  </si>
+  <si>
+    <t>56 6608 9170</t>
+  </si>
+  <si>
+    <t>ROP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]dddd\,mmmm\ d\,yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +335,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -263,12 +358,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="9"/>
+      <color rgb="FF002060"/>
+      <name val="JetBrains Mono"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -279,6 +384,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -444,7 +557,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC3A4E1"/>
+        <fgColor rgb="FFDBC9ED"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,151 +881,169 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -970,6 +1101,8 @@
   <colors>
     <mruColors>
       <color rgb="00C3A4E1"/>
+      <color rgb="00311748"/>
+      <color rgb="00DBC9ED"/>
     </mruColors>
   </colors>
   <extLst>
@@ -984,16 +1117,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>78105</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>318135</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>94615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>400685</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>524510</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>94615</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -1001,20 +1134,21 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000" flipV="1">
-          <a:off x="3986530" y="1037590"/>
-          <a:ext cx="1356995" cy="1171575"/>
+        <a:xfrm>
+          <a:off x="1438910" y="1913890"/>
+          <a:ext cx="6069965" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 605"/>
+            <a:gd name="adj1" fmla="val 99978"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="31750" cap="rnd">
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="311748"/>
           </a:solidFill>
           <a:round/>
+          <a:headEnd type="oval"/>
           <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
@@ -1296,16 +1430,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:M27"/>
+  <dimension ref="B3:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.63809523809524" customWidth="1"/>
     <col min="2" max="2" width="13.0952380952381" customWidth="1"/>
+    <col min="3" max="3" width="10.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="7.81904761904762" customWidth="1"/>
     <col min="5" max="6" width="8.36190476190476" customWidth="1"/>
     <col min="7" max="7" width="3.42857142857143" customWidth="1"/>
@@ -1315,282 +1450,323 @@
   </cols>
   <sheetData>
     <row r="3" ht="23.25" spans="2:2">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="2:12">
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="L5" t="s">
         <v>10</v>
       </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12">
-      <c r="C6" s="7" t="s">
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="12"/>
+      <c r="C6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="14"/>
+      <c r="F6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="J6" s="14"/>
       <c r="L6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="3:10">
-      <c r="C7" s="5" t="s">
+    <row r="7" spans="2:10">
+      <c r="B7" s="12"/>
+      <c r="C7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="14">
+        <v>10</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="12"/>
+      <c r="C8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="14">
+        <v>120</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="12"/>
+      <c r="C9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="14">
+        <v>15</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8" t="s">
+      <c r="F12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="12"/>
+      <c r="C13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="3:10">
-      <c r="C8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="G13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="12"/>
+      <c r="C14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="5">
-        <v>120</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="8" t="s">
+      <c r="E14" s="14">
+        <v>22</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="3:10">
-      <c r="C9" s="5" t="s">
+      <c r="I14" s="15"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="12"/>
+      <c r="C15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="14">
+        <v>50</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="12"/>
+      <c r="C16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="14">
+        <v>80</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="12"/>
+      <c r="C17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="12"/>
+      <c r="C18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="15"/>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="12"/>
+      <c r="C19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E19" s="14">
         <v>15</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10">
-      <c r="C13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="12"/>
+      <c r="C20" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="8" t="s">
+      <c r="E20" s="14"/>
+      <c r="F20" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G20" s="15"/>
+      <c r="H20" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="3:10">
-      <c r="C14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="5">
-        <v>22</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="3:10">
-      <c r="C15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="5">
-        <v>50</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="3:10">
-      <c r="C16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="5">
-        <v>80</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="3:10">
-      <c r="C17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="3:10">
-      <c r="C18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="3:10">
-      <c r="C19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="5">
-        <v>15</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="3:10">
-      <c r="C20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="5">
-        <v>12</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="5" t="s">
+      <c r="I20" s="15"/>
+      <c r="J20" s="14" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1623,172 +1799,399 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:G17"/>
+  <dimension ref="B3:N24"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="3.71428571428571" customWidth="1"/>
     <col min="2" max="2" width="13.0952380952381" customWidth="1"/>
-    <col min="3" max="3" width="14.4571428571429" customWidth="1"/>
-    <col min="4" max="4" width="12.2761904761905" customWidth="1"/>
-    <col min="5" max="5" width="11.0952380952381" customWidth="1"/>
-    <col min="6" max="6" width="12.8190476190476" customWidth="1"/>
-    <col min="7" max="7" width="11.0952380952381" customWidth="1"/>
-    <col min="9" max="9" width="10.8190476190476" customWidth="1"/>
+    <col min="3" max="3" width="8.65714285714286" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="8" width="11.1428571428571" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="14.8571428571429" customWidth="1"/>
+    <col min="13" max="14" width="11.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="23.25" spans="2:2">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="2:6">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="3:5">
-      <c r="C6" s="5" t="s">
+      <c r="E6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E7" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="5" t="s">
+      <c r="F7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="5" t="s">
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E8" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="5" t="s">
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9" s="7">
+        <v>4</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F9" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="3:5">
-      <c r="C9" t="s">
+    <row r="16" spans="2:10">
+      <c r="B16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="6" t="s">
+    </row>
+    <row r="17" spans="3:14">
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="E17" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="F17" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="G17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="H17" s="10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="3:7">
-      <c r="C14" s="5" t="s">
+      <c r="I17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="J17" s="7">
+        <v>1</v>
+      </c>
+      <c r="M17" t="str">
+        <f ca="1" t="shared" ref="M17:M24" si="0">CONCATENATE(RANDBETWEEN(1990,2020),"-",TEXT(RANDBETWEEN(1,12),"00"),"-",TEXT(RANDBETWEEN(1,28),"00"))</f>
+        <v>2008-10-26</v>
+      </c>
+      <c r="N17" t="str">
+        <f ca="1" t="shared" ref="N17:N24" si="1">CONCATENATE(RANDBETWEEN(2020,2023),"-",TEXT(RANDBETWEEN(1,12),"00"),"-",TEXT(RANDBETWEEN(1,28),"00"))</f>
+        <v>2022-07-23</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14">
+      <c r="C18" s="7">
+        <v>2</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E18" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F18" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7">
-      <c r="C15" s="5" t="s">
+      <c r="G18" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="H18" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="I18" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="J18" s="7">
+        <v>3</v>
+      </c>
+      <c r="M18" t="str">
+        <f ca="1" t="shared" si="0"/>
+        <v>1991-10-24</v>
+      </c>
+      <c r="N18" t="str">
+        <f ca="1" t="shared" si="1"/>
+        <v>2020-09-18</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14">
+      <c r="C19" s="7">
+        <v>3</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7">
-      <c r="C16" s="5" t="s">
+      <c r="E19" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="F19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7">
-      <c r="C17" s="5" t="s">
+      <c r="H19" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="I19" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="J19" s="7">
+        <v>2</v>
+      </c>
+      <c r="M19" t="str">
+        <f ca="1" t="shared" si="0"/>
+        <v>2008-11-14</v>
+      </c>
+      <c r="N19" t="str">
+        <f ca="1" t="shared" si="1"/>
+        <v>2020-09-06</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14">
+      <c r="C20" s="7">
+        <v>4</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="E20" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>36</v>
+      <c r="F20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="7">
+        <v>1</v>
+      </c>
+      <c r="M20" t="str">
+        <f ca="1" t="shared" si="0"/>
+        <v>2007-05-22</v>
+      </c>
+      <c r="N20" t="str">
+        <f ca="1" t="shared" si="1"/>
+        <v>2022-03-03</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14">
+      <c r="C21" s="7">
+        <v>5</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J21" s="7">
+        <v>4</v>
+      </c>
+      <c r="M21" t="str">
+        <f ca="1" t="shared" si="0"/>
+        <v>2012-11-23</v>
+      </c>
+      <c r="N21" t="str">
+        <f ca="1" t="shared" si="1"/>
+        <v>2021-02-25</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14">
+      <c r="C22" s="7">
+        <v>6</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J22" s="7">
+        <v>2</v>
+      </c>
+      <c r="M22" t="str">
+        <f ca="1" t="shared" si="0"/>
+        <v>2016-10-25</v>
+      </c>
+      <c r="N22" t="str">
+        <f ca="1" t="shared" si="1"/>
+        <v>2022-05-13</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14">
+      <c r="C23" s="7">
+        <v>7</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" s="7">
+        <v>3</v>
+      </c>
+      <c r="M23" t="str">
+        <f ca="1" t="shared" si="0"/>
+        <v>2011-09-07</v>
+      </c>
+      <c r="N23" t="str">
+        <f ca="1" t="shared" si="1"/>
+        <v>2022-11-23</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14">
+      <c r="C24" s="7">
+        <v>8</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J24" s="7">
+        <v>3</v>
+      </c>
+      <c r="M24" t="str">
+        <f ca="1" t="shared" si="0"/>
+        <v>2017-12-25</v>
+      </c>
+      <c r="N24" t="str">
+        <f ca="1" t="shared" si="1"/>
+        <v>2023-09-09</v>
       </c>
     </row>
   </sheetData>
@@ -1796,4 +2199,73 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A3:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="4" max="4" width="24.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <f>TYPE(A5)</f>
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <f>TYPE(B7)</f>
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <f>TYPE(D5)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>